--- a/ig/sd-test-testscript/StructureDefinition-ror-location-equipment.xlsx
+++ b/ig/sd-test-testscript/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:05+00:00</t>
+    <t>2024-02-07T18:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-test-testscript/StructureDefinition-ror-location-equipment.xlsx
+++ b/ig/sd-test-testscript/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T18:42:31+00:00</t>
+    <t>2024-02-07T19:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
